--- a/realcf/src/main/resources/static/excel/create.xlsx
+++ b/realcf/src/main/resources/static/excel/create.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="22056" windowHeight="9264"/>
+    <workbookView xWindow="480" yWindow="84" windowWidth="22056" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,25 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>drop table boarddata if exists</t>
-  </si>
-  <si>
-    <t>drop table coadata if exists</t>
-  </si>
-  <si>
-    <t>drop table coagroupdata if exists</t>
-  </si>
-  <si>
-    <t>drop table financialstatements if exists</t>
-  </si>
-  <si>
-    <t>drop table member if exists</t>
-  </si>
-  <si>
-    <t>drop table nodedata if exists</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>drop sequence if exists hibernate_sequence</t>
   </si>
@@ -45,12 +27,6 @@
     <t>create table boarddata (id bigint generated by default as identity, detail varchar(255), name varchar(255), when varchar(255) not null, member_id integer not null, primary key (id))</t>
   </si>
   <si>
-    <t>create table coadata (id bigint generated by default as identity, bspl varchar(255), business varchar(255), company varchar(255), exceptcol varchar(255), level double not null, name varchar(255), number double not null, parent varchar(255), ratio double not null, reportname varchar(255), val double, year integer not null, coagroupdata_id bigint, primary key (id))</t>
-  </si>
-  <si>
-    <t>create table coagroupdata (id bigint generated by default as identity, bspl varchar(255), business varchar(255), company varchar(255), exceptcol varchar(255), level double not null, name varchar(255), ratio double not null, val double, year integer not null, financialstatements_id bigint, primary key (id))</t>
-  </si>
-  <si>
     <t>create table financialstatements (id bigint generated by default as identity, name varchar(255), year integer not null, primary key (id))</t>
   </si>
   <si>
@@ -63,10 +39,37 @@
     <t>alter table boarddata add constraint FK6hbqpxcqnq1otmkjb4jrvapv foreign key (member_id) references member</t>
   </si>
   <si>
-    <t>alter table coadata add constraint FKi4uo9pbp5aeui24a6ny40cjgi foreign key (coagroupdata_id) references coagroupdata</t>
-  </si>
-  <si>
     <t>alter table coagroupdata add constraint FKb6pm1wljnbmdr9cvtlvhrxehq foreign key (financialstatements_id) references financialstatements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists boarddata CASCADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists coadata CASCADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists coagroupdata CASCADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists financialstatements CASCADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists lookupcounter CASCADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists member CASCADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists nodedata CASCADE </t>
+  </si>
+  <si>
+    <t>create table coadata (id bigint generated by default as identity, bspl varchar(255), business varchar(255), company varchar(255), exceptcol varchar(255), level double not null, name varchar(255), number double not null, parent varchar(255), ratio double not null, reportname varchar(255), val double, year integer not null, primary key (id))</t>
+  </si>
+  <si>
+    <t>create table coagroupdata (id bigint generated by default as identity, bspl varchar(255), business varchar(255), company varchar(255), exceptcol varchar(255), level double not null, name varchar(255), number double not null, ratio double not null, reportname varchar(255), val double, year integer not null, financialstatements_id bigint, primary key (id))</t>
+  </si>
+  <si>
+    <t>create table lookupcounter (id bigint generated by default as identity, count integer not null, name varchar(255), when varchar(255), primary key (id))</t>
   </si>
 </sst>
 </file>
@@ -413,97 +416,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -516,12 +524,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="29.19921875" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
